--- a/analysis/thalamus/figures_tables/edss_regressions/EDSS_and_main_mri_features_MS_ordinal.xlsx
+++ b/analysis/thalamus/figures_tables/edss_regressions/EDSS_and_main_mri_features_MS_ordinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1674634664819725</v>
+        <v>-0.1674634695256347</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3569232025427596</v>
+        <v>-0.3569229840401916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02199626957881456</v>
+        <v>0.02199604498892221</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08320019276662569</v>
+        <v>0.08319982673123226</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1109335903555009</v>
+        <v>0.1069712057972986</v>
       </c>
     </row>
     <row r="3">
@@ -504,24 +504,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05987488821540141</v>
+        <v>-0.0598748936427338</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2368145249553238</v>
+        <v>-0.2368138733192808</v>
       </c>
       <c r="D3" t="n">
-        <v>0.117064748524521</v>
+        <v>0.1170640860338132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5071798253367582</v>
+        <v>0.5071782096924642</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.236815, 0.117065]</t>
+          <t>[-0.236814, 0.117064]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5071798253367582</v>
+        <v>0.5071782096924642</v>
       </c>
     </row>
     <row r="4">
@@ -531,16 +531,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2258601490279419</v>
+        <v>-0.225860155333151</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4258071395072492</v>
+        <v>-0.4258072607425272</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0259131585486346</v>
+        <v>-0.02591304992377488</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0268304576666665</v>
+        <v>0.02683054096229817</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.04392405366209972</v>
+        <v>0.04117878811310693</v>
       </c>
     </row>
     <row r="5">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4035211919197747</v>
+        <v>-0.4035211896576987</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5924473561964861</v>
+        <v>-0.592447451186342</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2145950276430632</v>
+        <v>-0.2145949281290553</v>
       </c>
       <c r="E5" t="n">
-        <v>2.836350344349863e-05</v>
+        <v>2.836377551681724e-05</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.0001134540137739945</v>
+        <v>8.747792230175418e-05</v>
       </c>
     </row>
     <row r="6">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5772501397004041</v>
+        <v>-0.5772501423713801</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7738033020494861</v>
+        <v>-0.7738031701463228</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.380696977351322</v>
+        <v>-0.3806971145964373</v>
       </c>
       <c r="E6" t="n">
-        <v>8.60539313968885e-09</v>
+        <v>8.605190987884447e-09</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.88431451175108e-08</v>
+        <v>7.744671889096002e-08</v>
       </c>
     </row>
     <row r="7">
@@ -612,24 +612,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1965376793206138</v>
+        <v>0.1965376782763344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02184249254167017</v>
+        <v>0.02184250160511361</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3712328660995574</v>
+        <v>0.3712328549475553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02745253353881232</v>
+        <v>0.02745252540873795</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[0.021842, 0.371233]</t>
+          <t>[0.021843, 0.371233]</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.04392405366209972</v>
+        <v>0.04117878811310693</v>
       </c>
     </row>
     <row r="8">
@@ -639,16 +639,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.193982721905173</v>
+        <v>0.1939827241198392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02839109033697182</v>
+        <v>0.02839128608265049</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3595743534733742</v>
+        <v>0.359574162157028</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02167561810130506</v>
+        <v>0.02167546317521386</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.04392405366209972</v>
+        <v>0.04117878811310693</v>
       </c>
     </row>
     <row r="9">
@@ -666,24 +666,51 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1324367205158493</v>
+        <v>0.1324367176528546</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04871356355293494</v>
+        <v>-0.04871321314056995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3135870045846336</v>
+        <v>0.3135866484462793</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1518849019699049</v>
+        <v>0.1518841121278224</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[-0.048714, 0.313587]</t>
+          <t>[-0.048713, 0.313587]</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.1735827451084627</v>
+        <v>0.1708696261438001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ventricle_volume</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3952650308142474</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2099259483363594</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5806041132921352</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.915930743391806e-05</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[0.209926, 0.580604]</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8.747792230175418e-05</v>
       </c>
     </row>
   </sheetData>
